--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director as employee201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director as employee201718.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="14340" windowHeight="4452"/>
+    <workbookView xWindow="0" yWindow="2376" windowWidth="8208" windowHeight="3180" firstSheet="14" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,8 @@
     <sheet name="NIDirector_AsEmpMonth12" sheetId="4" r:id="rId26"/>
     <sheet name="TestReportsMarch" sheetId="27" r:id="rId27"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:B7"/>
 </workbook>
 </file>
 
@@ -753,7 +754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1695,7 +1696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director as employee201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director as employee201718.xlsx
@@ -1,47 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2376" windowWidth="8208" windowHeight="3180" firstSheet="14" activeTab="14"/>
+    <workbookView activeTab="14" firstSheet="14" windowHeight="3180" windowWidth="8205" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="2370"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NIDirector_AsEmp" sheetId="2" r:id="rId2"/>
-    <sheet name="PayrollForNIDirctorAsEmpApril" sheetId="3" r:id="rId3"/>
-    <sheet name="PayrollForNIDirctorAsEmpMay" sheetId="7" r:id="rId4"/>
-    <sheet name="PayrollForNIDirctorAsEmpJune" sheetId="9" r:id="rId5"/>
-    <sheet name="PayrollForNIDirctorAsEmpJuly" sheetId="10" r:id="rId6"/>
-    <sheet name="PayrollForNIDirctorAsEmpAug" sheetId="11" r:id="rId7"/>
-    <sheet name="PayrollForNIDirctorAsEmpSep" sheetId="12" r:id="rId8"/>
-    <sheet name="PayrollForNIDirctorAsEmpOct" sheetId="13" r:id="rId9"/>
-    <sheet name="PayrollForNIDirctorAsEmpNov" sheetId="14" r:id="rId10"/>
-    <sheet name="PayrollForNIDirctorAsEmpDec" sheetId="15" r:id="rId11"/>
-    <sheet name="PayrollForNIDirctorAsEmpJan" sheetId="16" r:id="rId12"/>
-    <sheet name="PayrollForNIDirctorAsEmpFeb" sheetId="17" r:id="rId13"/>
-    <sheet name="PayrollForNIDirctorAsEmpMarch" sheetId="18" r:id="rId14"/>
-    <sheet name="TestReportsApril" sheetId="5" r:id="rId15"/>
-    <sheet name="TestReportsMay" sheetId="6" r:id="rId16"/>
-    <sheet name="TestReportsJune" sheetId="8" r:id="rId17"/>
-    <sheet name="TestReportsJuly" sheetId="19" r:id="rId18"/>
-    <sheet name="TestReportsAugust" sheetId="20" r:id="rId19"/>
-    <sheet name="TestReportsSeptember" sheetId="21" r:id="rId20"/>
-    <sheet name="TestReportsOctober" sheetId="22" r:id="rId21"/>
-    <sheet name="TestReportsNovember" sheetId="23" r:id="rId22"/>
-    <sheet name="TestReportsDecember" sheetId="24" r:id="rId23"/>
-    <sheet name="TestReportsJanuary" sheetId="25" r:id="rId24"/>
-    <sheet name="TestReportsFebruary" sheetId="26" r:id="rId25"/>
-    <sheet name="NIDirector_AsEmpMonth12" sheetId="4" r:id="rId26"/>
-    <sheet name="TestReportsMarch" sheetId="27" r:id="rId27"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NIDirector_AsEmp" r:id="rId2" sheetId="2"/>
+    <sheet name="PayrollForNIDirctorAsEmpApril" r:id="rId3" sheetId="3"/>
+    <sheet name="PayrollForNIDirctorAsEmpMay" r:id="rId4" sheetId="7"/>
+    <sheet name="PayrollForNIDirctorAsEmpJune" r:id="rId5" sheetId="9"/>
+    <sheet name="PayrollForNIDirctorAsEmpJuly" r:id="rId6" sheetId="10"/>
+    <sheet name="PayrollForNIDirctorAsEmpAug" r:id="rId7" sheetId="11"/>
+    <sheet name="PayrollForNIDirctorAsEmpSep" r:id="rId8" sheetId="12"/>
+    <sheet name="PayrollForNIDirctorAsEmpOct" r:id="rId9" sheetId="13"/>
+    <sheet name="PayrollForNIDirctorAsEmpNov" r:id="rId10" sheetId="14"/>
+    <sheet name="PayrollForNIDirctorAsEmpDec" r:id="rId11" sheetId="15"/>
+    <sheet name="PayrollForNIDirctorAsEmpJan" r:id="rId12" sheetId="16"/>
+    <sheet name="PayrollForNIDirctorAsEmpFeb" r:id="rId13" sheetId="17"/>
+    <sheet name="PayrollForNIDirctorAsEmpMarch" r:id="rId14" sheetId="18"/>
+    <sheet name="TestReportsApril" r:id="rId15" sheetId="5"/>
+    <sheet name="TestReportsMay" r:id="rId16" sheetId="6"/>
+    <sheet name="TestReportsJune" r:id="rId17" sheetId="8"/>
+    <sheet name="TestReportsJuly" r:id="rId18" sheetId="19"/>
+    <sheet name="TestReportsAugust" r:id="rId19" sheetId="20"/>
+    <sheet name="TestReportsSeptember" r:id="rId20" sheetId="21"/>
+    <sheet name="TestReportsOctober" r:id="rId21" sheetId="22"/>
+    <sheet name="TestReportsNovember" r:id="rId22" sheetId="23"/>
+    <sheet name="TestReportsDecember" r:id="rId23" sheetId="24"/>
+    <sheet name="TestReportsJanuary" r:id="rId24" sheetId="25"/>
+    <sheet name="TestReportsFebruary" r:id="rId25" sheetId="26"/>
+    <sheet name="NIDirector_AsEmpMonth12" r:id="rId26" sheetId="4"/>
+    <sheet name="TestReportsMarch" r:id="rId27" sheetId="27"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:B7"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="107">
   <si>
     <t>TC</t>
   </si>
@@ -359,12 +363,16 @@
   </si>
   <si>
     <t>Monthly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll NI Director's calculation Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,54 +420,57 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -470,10 +481,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -508,7 +519,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -541,9 +552,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -576,6 +604,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -631,7 +676,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -640,13 +685,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -656,7 +701,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -665,7 +710,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -674,7 +719,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -684,12 +729,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -720,7 +765,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -739,7 +784,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -751,22 +796,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -780,7 +825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
@@ -791,10 +836,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row customFormat="1" r="3" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -808,7 +853,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="4" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>48</v>
       </c>
@@ -822,7 +867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="5" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
@@ -836,7 +881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="6" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>56</v>
       </c>
@@ -850,7 +895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="7" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>84</v>
       </c>
@@ -864,7 +909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="8" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>96</v>
       </c>
@@ -878,7 +923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="9" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>97</v>
       </c>
@@ -892,7 +937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="10" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>98</v>
       </c>
@@ -906,7 +951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="11" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>99</v>
       </c>
@@ -920,7 +965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="12" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>100</v>
       </c>
@@ -934,7 +979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="13" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>101</v>
       </c>
@@ -948,7 +993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="14" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>102</v>
       </c>
@@ -962,7 +1007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="15" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>85</v>
       </c>
@@ -976,7 +1021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
@@ -990,7 +1035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
@@ -1004,7 +1049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1018,7 +1063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="45" r="19" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>86</v>
       </c>
@@ -1032,7 +1077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="45" r="20" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>87</v>
       </c>
@@ -1046,7 +1091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="45" r="21" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>88</v>
       </c>
@@ -1060,7 +1105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="45" r="22" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>89</v>
       </c>
@@ -1074,7 +1119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="45" r="23" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>90</v>
       </c>
@@ -1088,7 +1133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>91</v>
       </c>
@@ -1102,7 +1147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>92</v>
       </c>
@@ -1116,7 +1161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>93</v>
       </c>
@@ -1130,7 +1175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="27" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -1141,7 +1186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>94</v>
       </c>
@@ -1156,34 +1201,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="50" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="50.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -1224,7 +1269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -1261,35 +1306,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="63.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="63.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -1330,7 +1375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -1367,35 +1412,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="41.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="61.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="41.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="61.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -1436,7 +1481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -1473,36 +1518,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="67.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="67.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -1543,7 +1588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -1580,35 +1625,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="71.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="71.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -1649,7 +1694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -1686,36 +1731,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="57.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="57.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -1759,7 +1804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -1782,7 +1827,7 @@
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>64</v>
@@ -1799,38 +1844,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -1874,7 +1919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -1914,37 +1959,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="62.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -1988,7 +2033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -2028,38 +2073,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2" xr:uid="{00000000-0004-0000-1000-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="59.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -2103,7 +2148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -2143,37 +2188,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2" xr:uid="{00000000-0004-0000-1100-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="63.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="27.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="57.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="63.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="27.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -2217,7 +2262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -2257,34 +2302,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2" xr:uid="{00000000-0004-0000-1200-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.77734375" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="15.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2313,7 +2358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -2337,36 +2382,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.88671875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.77734375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -2410,7 +2455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -2450,37 +2495,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-1300-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2" xr:uid="{00000000-0004-0000-1300-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.77734375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -2524,7 +2569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -2564,37 +2609,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2" xr:uid="{00000000-0004-0000-1400-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="67.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="45.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="67.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="26.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -2638,7 +2683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -2678,37 +2723,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2" xr:uid="{00000000-0004-0000-1500-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="49.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="74.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="56.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="49.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="41.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="74.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -2752,7 +2797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -2792,37 +2837,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-1600-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2" xr:uid="{00000000-0004-0000-1600-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="47.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="68.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="54.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="68.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -2866,7 +2911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -2906,37 +2951,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2" xr:uid="{00000000-0004-0000-1700-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -2980,7 +3025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -3020,34 +3065,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-1800-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2" xr:uid="{00000000-0004-0000-1800-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="6" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="5.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="6.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3076,7 +3121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -3100,36 +3145,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.21875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -3173,7 +3218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -3213,36 +3258,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="C2" r:id="rId2" display="https://eu2.salesforce.com/a2Qb0000000E8HTEA0"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-1A00-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a2Qb0000000E8HTEA0" r:id="rId2" ref="C2" xr:uid="{00000000-0004-0000-1A00-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="63.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="63.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -3283,7 +3328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -3320,34 +3365,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="39.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="62.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -3388,7 +3433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -3425,35 +3470,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -3494,7 +3539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -3531,36 +3576,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="74.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="74.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -3601,7 +3646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -3638,35 +3683,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="77.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="77.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -3707,7 +3752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -3744,35 +3789,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="54.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -3813,7 +3858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -3850,35 +3895,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -3919,7 +3964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -3956,8 +4001,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director as employee201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director as employee201718.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="14" firstSheet="14" windowHeight="3180" windowWidth="8205" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="2370"/>
+    <workbookView activeTab="26" firstSheet="23" windowHeight="3180" windowWidth="8205" xWindow="0" yWindow="2370"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="105">
   <si>
     <t>TC</t>
   </si>
@@ -354,12 +354,6 @@
   </si>
   <si>
     <t>PayrollForNIDirctorAsEmpFeb</t>
-  </si>
-  <si>
-    <t>Skipped</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>Monthly_Payroll</t>
@@ -371,7 +365,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -461,7 +455,7 @@
   <cellStyles count="3">
     <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
@@ -796,7 +790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -850,7 +844,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>5</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1207,7 +1201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1277,7 +1271,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
@@ -1306,14 +1300,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1383,7 +1377,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
@@ -1412,14 +1406,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1489,7 +1483,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
@@ -1518,14 +1512,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1596,7 +1590,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
@@ -1625,14 +1619,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1702,7 +1696,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
@@ -1731,17 +1725,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1812,7 +1806,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
@@ -1827,7 +1821,7 @@
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>64</v>
@@ -1844,19 +1838,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,7 +1921,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
@@ -1942,7 +1936,7 @@
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>65</v>
@@ -1959,19 +1953,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2041,7 +2035,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
@@ -2056,7 +2050,7 @@
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>66</v>
@@ -2073,19 +2067,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2" xr:uid="{00000000-0004-0000-1000-000001000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2156,7 +2150,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
@@ -2171,7 +2165,7 @@
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>67</v>
@@ -2188,19 +2182,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2" xr:uid="{00000000-0004-0000-1100-000001000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2270,7 +2264,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
@@ -2285,7 +2279,7 @@
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>68</v>
@@ -2302,15 +2296,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2" xr:uid="{00000000-0004-0000-1200-000001000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2388,11 +2382,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2463,7 +2457,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
@@ -2478,7 +2472,7 @@
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>70</v>
@@ -2495,19 +2489,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-1300-000000000000}"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2" xr:uid="{00000000-0004-0000-1300-000001000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2577,7 +2571,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
@@ -2592,7 +2586,7 @@
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>71</v>
@@ -2609,19 +2603,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2" xr:uid="{00000000-0004-0000-1400-000001000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2691,7 +2685,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
@@ -2706,7 +2700,7 @@
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>73</v>
@@ -2723,19 +2717,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2" xr:uid="{00000000-0004-0000-1500-000001000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2805,7 +2799,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
@@ -2820,7 +2814,7 @@
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>75</v>
@@ -2837,19 +2831,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-1600-000000000000}"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2" xr:uid="{00000000-0004-0000-1600-000001000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2919,7 +2913,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
@@ -2934,7 +2928,7 @@
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>77</v>
@@ -2951,19 +2945,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2" xr:uid="{00000000-0004-0000-1700-000001000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3033,7 +3027,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
@@ -3048,7 +3042,7 @@
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>79</v>
@@ -3065,15 +3059,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-1800-000000000000}"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2" xr:uid="{00000000-0004-0000-1800-000001000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3151,11 +3145,11 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3241,7 +3235,7 @@
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>82</v>
@@ -3258,15 +3252,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-1A00-000000000000}"/>
-    <hyperlink display="https://eu2.salesforce.com/a2Qb0000000E8HTEA0" r:id="rId2" ref="C2" xr:uid="{00000000-0004-0000-1A00-000001000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://eu2.salesforce.com/a2Qb0000000E8HTEA0" r:id="rId2" ref="C2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3336,7 +3330,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
@@ -3365,14 +3359,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3441,7 +3435,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
@@ -3470,14 +3464,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3547,7 +3541,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
@@ -3576,14 +3570,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3654,7 +3648,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
@@ -3683,14 +3677,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3760,7 +3754,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
@@ -3789,14 +3783,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3866,7 +3860,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
@@ -3895,14 +3889,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3972,7 +3966,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
@@ -4001,7 +3995,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director as employee201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director as employee201718.xlsx
@@ -1,51 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="26" firstSheet="23" windowHeight="3180" windowWidth="8205" xWindow="0" yWindow="2370"/>
+    <workbookView xWindow="0" yWindow="2370" windowWidth="8205" windowHeight="3180" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="NIDirector_AsEmp" r:id="rId2" sheetId="2"/>
-    <sheet name="PayrollForNIDirctorAsEmpApril" r:id="rId3" sheetId="3"/>
-    <sheet name="PayrollForNIDirctorAsEmpMay" r:id="rId4" sheetId="7"/>
-    <sheet name="PayrollForNIDirctorAsEmpJune" r:id="rId5" sheetId="9"/>
-    <sheet name="PayrollForNIDirctorAsEmpJuly" r:id="rId6" sheetId="10"/>
-    <sheet name="PayrollForNIDirctorAsEmpAug" r:id="rId7" sheetId="11"/>
-    <sheet name="PayrollForNIDirctorAsEmpSep" r:id="rId8" sheetId="12"/>
-    <sheet name="PayrollForNIDirctorAsEmpOct" r:id="rId9" sheetId="13"/>
-    <sheet name="PayrollForNIDirctorAsEmpNov" r:id="rId10" sheetId="14"/>
-    <sheet name="PayrollForNIDirctorAsEmpDec" r:id="rId11" sheetId="15"/>
-    <sheet name="PayrollForNIDirctorAsEmpJan" r:id="rId12" sheetId="16"/>
-    <sheet name="PayrollForNIDirctorAsEmpFeb" r:id="rId13" sheetId="17"/>
-    <sheet name="PayrollForNIDirctorAsEmpMarch" r:id="rId14" sheetId="18"/>
-    <sheet name="TestReportsApril" r:id="rId15" sheetId="5"/>
-    <sheet name="TestReportsMay" r:id="rId16" sheetId="6"/>
-    <sheet name="TestReportsJune" r:id="rId17" sheetId="8"/>
-    <sheet name="TestReportsJuly" r:id="rId18" sheetId="19"/>
-    <sheet name="TestReportsAugust" r:id="rId19" sheetId="20"/>
-    <sheet name="TestReportsSeptember" r:id="rId20" sheetId="21"/>
-    <sheet name="TestReportsOctober" r:id="rId21" sheetId="22"/>
-    <sheet name="TestReportsNovember" r:id="rId22" sheetId="23"/>
-    <sheet name="TestReportsDecember" r:id="rId23" sheetId="24"/>
-    <sheet name="TestReportsJanuary" r:id="rId24" sheetId="25"/>
-    <sheet name="TestReportsFebruary" r:id="rId25" sheetId="26"/>
-    <sheet name="NIDirector_AsEmpMonth12" r:id="rId26" sheetId="4"/>
-    <sheet name="TestReportsMarch" r:id="rId27" sheetId="27"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="NIDirector_AsEmp" sheetId="2" r:id="rId2"/>
+    <sheet name="PayrollForNIDirctorAsEmpApril" sheetId="3" r:id="rId3"/>
+    <sheet name="PayrollForNIDirctorAsEmpMay" sheetId="7" r:id="rId4"/>
+    <sheet name="PayrollForNIDirctorAsEmpJune" sheetId="9" r:id="rId5"/>
+    <sheet name="PayrollForNIDirctorAsEmpJuly" sheetId="10" r:id="rId6"/>
+    <sheet name="PayrollForNIDirctorAsEmpAug" sheetId="11" r:id="rId7"/>
+    <sheet name="PayrollForNIDirctorAsEmpSep" sheetId="12" r:id="rId8"/>
+    <sheet name="PayrollForNIDirctorAsEmpOct" sheetId="13" r:id="rId9"/>
+    <sheet name="PayrollForNIDirctorAsEmpNov" sheetId="14" r:id="rId10"/>
+    <sheet name="PayrollForNIDirctorAsEmpDec" sheetId="15" r:id="rId11"/>
+    <sheet name="PayrollForNIDirctorAsEmpJan" sheetId="16" r:id="rId12"/>
+    <sheet name="PayrollForNIDirctorAsEmpFeb" sheetId="17" r:id="rId13"/>
+    <sheet name="PayrollForNIDirctorAsEmpMarch" sheetId="18" r:id="rId14"/>
+    <sheet name="TestReportsApril" sheetId="5" r:id="rId15"/>
+    <sheet name="TestReportsMay" sheetId="6" r:id="rId16"/>
+    <sheet name="TestReportsJune" sheetId="8" r:id="rId17"/>
+    <sheet name="TestReportsJuly" sheetId="19" r:id="rId18"/>
+    <sheet name="TestReportsAugust" sheetId="20" r:id="rId19"/>
+    <sheet name="TestReportsSeptember" sheetId="21" r:id="rId20"/>
+    <sheet name="TestReportsOctober" sheetId="22" r:id="rId21"/>
+    <sheet name="TestReportsNovember" sheetId="23" r:id="rId22"/>
+    <sheet name="TestReportsDecember" sheetId="24" r:id="rId23"/>
+    <sheet name="TestReportsJanuary" sheetId="25" r:id="rId24"/>
+    <sheet name="TestReportsFebruary" sheetId="26" r:id="rId25"/>
+    <sheet name="NIDirector_AsEmpMonth12" sheetId="4" r:id="rId26"/>
+    <sheet name="TestReportsMarch" sheetId="27" r:id="rId27"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="104">
   <si>
     <t>TC</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>DO NOT TOUCH - Director as employee</t>
-  </si>
-  <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll Tax Test Report 201718\\201718 Payroll NI Director's calculation Test result.xlsx</t>
   </si>
   <si>
     <t>TestReportWorksheetNo</t>
@@ -366,7 +363,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,51 +410,51 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -475,10 +471,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -513,7 +509,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -565,7 +561,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -670,7 +666,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -679,13 +675,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -695,7 +691,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -704,7 +700,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -713,7 +709,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -723,12 +719,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -759,7 +755,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -778,7 +774,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -790,7 +786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -799,10 +795,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="37.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -819,7 +815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
@@ -833,7 +829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -847,9 +843,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>14</v>
@@ -861,9 +857,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="5" s="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>14</v>
@@ -875,9 +871,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="6" s="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>14</v>
@@ -889,9 +885,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>14</v>
@@ -903,9 +899,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="8" s="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>14</v>
@@ -917,9 +913,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="9" s="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>14</v>
@@ -931,9 +927,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="10" s="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>14</v>
@@ -945,9 +941,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>14</v>
@@ -959,9 +955,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="12" s="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>14</v>
@@ -973,9 +969,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="13" s="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>14</v>
@@ -987,9 +983,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="14" s="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>14</v>
@@ -1001,9 +997,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="15" s="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>14</v>
@@ -1015,9 +1011,9 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="45" r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>12</v>
@@ -1029,9 +1025,9 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="45" r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>12</v>
@@ -1043,9 +1039,9 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="45" r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>12</v>
@@ -1057,9 +1053,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="19" s="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>12</v>
@@ -1071,9 +1067,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="20" s="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>12</v>
@@ -1085,9 +1081,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="21" s="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>12</v>
@@ -1099,9 +1095,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="22" s="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>12</v>
@@ -1113,9 +1109,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="23" s="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>12</v>
@@ -1127,9 +1123,9 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="45" r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>12</v>
@@ -1141,9 +1137,9 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="45" r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>12</v>
@@ -1155,9 +1151,9 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="45" r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>12</v>
@@ -1169,7 +1165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="27" s="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -1180,9 +1176,9 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="45" r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>12</v>
@@ -1195,34 +1191,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="55.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="50.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="64.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="55.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="50" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="64.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -1263,7 +1259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -1271,25 +1267,25 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>38</v>
@@ -1300,35 +1296,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="55.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="63.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="1" max="1" width="55" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="63.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -1369,7 +1365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -1377,25 +1373,25 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>38</v>
@@ -1406,35 +1402,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="41.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="61.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="41.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="61.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -1475,7 +1471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -1483,25 +1479,25 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>38</v>
@@ -1512,36 +1508,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="43.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="67.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="1" max="1" width="52.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="67.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -1582,7 +1578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -1590,25 +1586,25 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>38</v>
@@ -1619,35 +1615,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="55.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="71.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="1" max="1" width="55.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="71.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -1688,7 +1684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -1696,25 +1692,25 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>38</v>
@@ -1725,14 +1721,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -1741,20 +1737,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="57.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="57.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -1786,7 +1782,7 @@
         <v>33</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>2</v>
@@ -1798,7 +1794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -1806,7 +1802,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
@@ -1815,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>38</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>4</v>
@@ -1838,15 +1834,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -1855,21 +1851,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="65.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="51.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="65.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -1901,7 +1897,7 @@
         <v>33</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>2</v>
@@ -1913,7 +1909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -1921,31 +1917,31 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>38</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>4</v>
@@ -1953,15 +1949,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -1970,20 +1966,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="44.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="62.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="1" max="1" width="52.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="62.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -2015,7 +2011,7 @@
         <v>33</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>2</v>
@@ -2027,7 +2023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -2035,31 +2031,31 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>38</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>4</v>
@@ -2067,15 +2063,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -2084,21 +2080,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="55.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="59.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="55.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -2130,7 +2126,7 @@
         <v>33</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>2</v>
@@ -2142,7 +2138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -2150,31 +2146,31 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>38</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>4</v>
@@ -2182,15 +2178,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -2199,20 +2195,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="57.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="44.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="63.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="1" max="1" width="57.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="63.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="27.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -2244,7 +2240,7 @@
         <v>33</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>2</v>
@@ -2256,7 +2252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -2264,31 +2260,31 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>38</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>4</v>
@@ -2296,15 +2292,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2313,14 +2309,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="13.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="5" width="15.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2360,7 +2356,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>24</v>
@@ -2376,13 +2372,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -2391,21 +2387,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="44.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="65.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="65.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -2437,7 +2433,7 @@
         <v>33</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>2</v>
@@ -2449,7 +2445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -2457,31 +2453,31 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>38</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>4</v>
@@ -2489,15 +2485,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -2506,20 +2502,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="64.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="64.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -2551,7 +2547,7 @@
         <v>33</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>2</v>
@@ -2563,7 +2559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -2571,31 +2567,31 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>38</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>4</v>
@@ -2603,15 +2599,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -2620,20 +2616,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="45.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="67.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="67.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -2665,7 +2661,7 @@
         <v>33</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>2</v>
@@ -2677,7 +2673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -2685,31 +2681,31 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>38</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>4</v>
@@ -2717,15 +2713,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -2734,20 +2730,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="56.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="49.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="41.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="74.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="1" max="1" width="56.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="49.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="41.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="74.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -2779,7 +2775,7 @@
         <v>33</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>2</v>
@@ -2791,7 +2787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -2799,31 +2795,31 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>38</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>4</v>
@@ -2831,15 +2827,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -2848,20 +2844,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="54.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="47.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="68.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="1" max="1" width="54.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="68.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -2893,7 +2889,7 @@
         <v>33</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>2</v>
@@ -2905,7 +2901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -2913,31 +2909,31 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>38</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>4</v>
@@ -2945,15 +2941,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -2962,20 +2958,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="55.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="64.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="1" max="1" width="55.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="64.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -3007,7 +3003,7 @@
         <v>33</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>2</v>
@@ -3019,7 +3015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -3027,31 +3023,31 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>38</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>4</v>
@@ -3059,15 +3055,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3076,17 +3072,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="5.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="6" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3115,7 +3111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -3123,7 +3119,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>24</v>
@@ -3139,14 +3135,129 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="65.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="C2" r:id="rId2" display="https://eu2.salesforce.com/a2Qb0000000E8HTEA0"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -3154,21 +3265,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="44.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="65.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="1" max="1" width="51.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="63.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -3200,19 +3309,16 @@
         <v>33</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -3220,68 +3326,63 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
-    <hyperlink display="https://eu2.salesforce.com/a2Qb0000000E8HTEA0" r:id="rId2" ref="C2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="63.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="39.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="62.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -3322,7 +3423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -3330,25 +3431,25 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>38</v>
@@ -3359,34 +3460,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="62.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="52.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="65.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -3427,7 +3529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -3435,25 +3537,25 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>38</v>
@@ -3464,35 +3566,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="44.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="65.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="1" max="1" width="51.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="74.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -3533,7 +3636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -3541,25 +3644,25 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>38</v>
@@ -3570,36 +3673,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="74.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="1" max="1" width="53.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="77.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -3640,7 +3742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -3648,25 +3750,25 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>38</v>
@@ -3677,35 +3779,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="77.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="1" max="1" width="54.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="65.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -3746,7 +3848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -3754,25 +3856,25 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>38</v>
@@ -3783,35 +3885,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="54.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="65.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="1" width="55.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="64.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -3852,7 +3954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -3860,22 +3962,22 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>54</v>
@@ -3889,114 +3991,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="55.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="64.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.85546875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director as employee201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director as employee201718.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2370" windowWidth="8205" windowHeight="3180" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2376" windowWidth="8208" windowHeight="3180" firstSheet="16" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -40,12 +35,12 @@
     <sheet name="NIDirector_AsEmpMonth12" sheetId="4" r:id="rId26"/>
     <sheet name="TestReportsMarch" sheetId="27" r:id="rId27"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="103">
   <si>
     <t>TC</t>
   </si>
@@ -116,9 +111,6 @@
     <t>This script executes the query to accumulated ytd in payroll</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 101</t>
-  </si>
-  <si>
     <t>04/06/2017</t>
   </si>
   <si>
@@ -149,12 +141,6 @@
     <t>PayrollView</t>
   </si>
   <si>
-    <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
-  </si>
-  <si>
-    <t>Payroll-0903</t>
-  </si>
-  <si>
     <t>April-2017</t>
   </si>
   <si>
@@ -353,16 +339,22 @@
     <t>PayrollForNIDirctorAsEmpFeb</t>
   </si>
   <si>
-    <t>Monthly_Payroll</t>
-  </si>
-  <si>
     <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll NI Director's calculation Test result.xlsx</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 600</t>
+  </si>
+  <si>
+    <t>DONT TOUCH AUTO DIREMP EMPLOYER</t>
+  </si>
+  <si>
+    <t>DIREMP_Payroll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,7 +406,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -423,7 +415,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -437,16 +428,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -509,7 +498,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,26 +531,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -594,23 +566,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -793,15 +748,15 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -816,7 +771,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -825,11 +780,11 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -843,177 +798,177 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>45</v>
+      <c r="A16" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>12</v>
@@ -1025,9 +980,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>46</v>
+    <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>12</v>
@@ -1035,13 +990,13 @@
       <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D17" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>12</v>
@@ -1049,13 +1004,13 @@
       <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>85</v>
+      <c r="D18" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>12</v>
@@ -1063,13 +1018,13 @@
       <c r="C19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>86</v>
+      <c r="D19" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>12</v>
@@ -1077,13 +1032,13 @@
       <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>87</v>
+      <c r="D20" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>12</v>
@@ -1091,13 +1046,13 @@
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>88</v>
+      <c r="D21" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>12</v>
@@ -1105,13 +1060,13 @@
       <c r="C22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>89</v>
+      <c r="D22" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>12</v>
@@ -1119,13 +1074,13 @@
       <c r="C23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>90</v>
+      <c r="D23" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>12</v>
@@ -1133,13 +1088,13 @@
       <c r="C24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>91</v>
+      <c r="D24" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>12</v>
@@ -1147,13 +1102,13 @@
       <c r="C25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>92</v>
+      <c r="D25" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>12</v>
@@ -1161,24 +1116,24 @@
       <c r="C26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="D26" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>93</v>
+    <row r="28" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>12</v>
@@ -1186,7 +1141,7 @@
       <c r="C28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1200,103 +1155,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="39.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="50" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="64.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>34</v>
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="G2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1306,103 +1261,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="35" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="63.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="63.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>34</v>
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="G2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1412,103 +1367,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="41.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="61.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="41.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="61.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>34</v>
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="G2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1518,104 +1473,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="52.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="16" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="67.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="67.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>34</v>
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="G2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1625,103 +1580,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="71.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="71.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>34</v>
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="G2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1731,111 +1686,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="33" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="57.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="57.88671875" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1845,112 +1800,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="65.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1960,111 +1915,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="52.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="62.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>34</v>
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2074,112 +2029,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>34</v>
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2189,111 +2144,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="63.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="57.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="63.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="27.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>34</v>
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2304,19 +2259,19 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.6640625" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2349,19 +2304,19 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>42240</v>
       </c>
       <c r="F2" t="s">
@@ -2381,112 +2336,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="65.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.88671875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>34</v>
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2496,111 +2451,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="64.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>34</v>
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2610,111 +2565,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="34" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="67.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="67.44140625" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="16" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="26" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>34</v>
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2724,111 +2679,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="49.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="74.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="56.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="49.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="41.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="74.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>34</v>
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2838,111 +2793,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="54.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="47.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="68.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="47.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="68.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="17" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>34</v>
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2952,111 +2907,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="64.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>34</v>
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3067,22 +3022,22 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="20" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.33203125" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="6" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3111,23 +3066,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>300000</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -3144,112 +3099,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="36" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="65.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>34</v>
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="K2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="C2" r:id="rId2" display="https://eu2.salesforce.com/a2Qb0000000E8HTEA0"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3259,103 +3213,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.5546875" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.5546875" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="42" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="63.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="63.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="F2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="J2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3365,102 +3319,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="39.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="39.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="62.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>34</v>
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="J2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3470,103 +3424,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="52.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="65.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>34</v>
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="G2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3576,104 +3530,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="74.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="74.44140625" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>34</v>
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="G2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3683,103 +3637,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.77734375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="77.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="77.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>34</v>
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="G2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3789,103 +3743,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="65.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>34</v>
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="G2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3895,103 +3849,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="36.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="64.33203125" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>34</v>
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="G2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director as employee201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director as employee201718.xlsx
@@ -4,43 +4,43 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2376" windowWidth="8208" windowHeight="3180" firstSheet="16" activeTab="19"/>
+    <workbookView activeTab="19" firstSheet="16" windowHeight="3180" windowWidth="8208" xWindow="0" yWindow="2376"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NIDirector_AsEmp" sheetId="2" r:id="rId2"/>
-    <sheet name="PayrollForNIDirctorAsEmpApril" sheetId="3" r:id="rId3"/>
-    <sheet name="PayrollForNIDirctorAsEmpMay" sheetId="7" r:id="rId4"/>
-    <sheet name="PayrollForNIDirctorAsEmpJune" sheetId="9" r:id="rId5"/>
-    <sheet name="PayrollForNIDirctorAsEmpJuly" sheetId="10" r:id="rId6"/>
-    <sheet name="PayrollForNIDirctorAsEmpAug" sheetId="11" r:id="rId7"/>
-    <sheet name="PayrollForNIDirctorAsEmpSep" sheetId="12" r:id="rId8"/>
-    <sheet name="PayrollForNIDirctorAsEmpOct" sheetId="13" r:id="rId9"/>
-    <sheet name="PayrollForNIDirctorAsEmpNov" sheetId="14" r:id="rId10"/>
-    <sheet name="PayrollForNIDirctorAsEmpDec" sheetId="15" r:id="rId11"/>
-    <sheet name="PayrollForNIDirctorAsEmpJan" sheetId="16" r:id="rId12"/>
-    <sheet name="PayrollForNIDirctorAsEmpFeb" sheetId="17" r:id="rId13"/>
-    <sheet name="PayrollForNIDirctorAsEmpMarch" sheetId="18" r:id="rId14"/>
-    <sheet name="TestReportsApril" sheetId="5" r:id="rId15"/>
-    <sheet name="TestReportsMay" sheetId="6" r:id="rId16"/>
-    <sheet name="TestReportsJune" sheetId="8" r:id="rId17"/>
-    <sheet name="TestReportsJuly" sheetId="19" r:id="rId18"/>
-    <sheet name="TestReportsAugust" sheetId="20" r:id="rId19"/>
-    <sheet name="TestReportsSeptember" sheetId="21" r:id="rId20"/>
-    <sheet name="TestReportsOctober" sheetId="22" r:id="rId21"/>
-    <sheet name="TestReportsNovember" sheetId="23" r:id="rId22"/>
-    <sheet name="TestReportsDecember" sheetId="24" r:id="rId23"/>
-    <sheet name="TestReportsJanuary" sheetId="25" r:id="rId24"/>
-    <sheet name="TestReportsFebruary" sheetId="26" r:id="rId25"/>
-    <sheet name="NIDirector_AsEmpMonth12" sheetId="4" r:id="rId26"/>
-    <sheet name="TestReportsMarch" sheetId="27" r:id="rId27"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NIDirector_AsEmp" r:id="rId2" sheetId="2"/>
+    <sheet name="PayrollForNIDirctorAsEmpApril" r:id="rId3" sheetId="3"/>
+    <sheet name="PayrollForNIDirctorAsEmpMay" r:id="rId4" sheetId="7"/>
+    <sheet name="PayrollForNIDirctorAsEmpJune" r:id="rId5" sheetId="9"/>
+    <sheet name="PayrollForNIDirctorAsEmpJuly" r:id="rId6" sheetId="10"/>
+    <sheet name="PayrollForNIDirctorAsEmpAug" r:id="rId7" sheetId="11"/>
+    <sheet name="PayrollForNIDirctorAsEmpSep" r:id="rId8" sheetId="12"/>
+    <sheet name="PayrollForNIDirctorAsEmpOct" r:id="rId9" sheetId="13"/>
+    <sheet name="PayrollForNIDirctorAsEmpNov" r:id="rId10" sheetId="14"/>
+    <sheet name="PayrollForNIDirctorAsEmpDec" r:id="rId11" sheetId="15"/>
+    <sheet name="PayrollForNIDirctorAsEmpJan" r:id="rId12" sheetId="16"/>
+    <sheet name="PayrollForNIDirctorAsEmpFeb" r:id="rId13" sheetId="17"/>
+    <sheet name="PayrollForNIDirctorAsEmpMarch" r:id="rId14" sheetId="18"/>
+    <sheet name="TestReportsApril" r:id="rId15" sheetId="5"/>
+    <sheet name="TestReportsMay" r:id="rId16" sheetId="6"/>
+    <sheet name="TestReportsJune" r:id="rId17" sheetId="8"/>
+    <sheet name="TestReportsJuly" r:id="rId18" sheetId="19"/>
+    <sheet name="TestReportsAugust" r:id="rId19" sheetId="20"/>
+    <sheet name="TestReportsSeptember" r:id="rId20" sheetId="21"/>
+    <sheet name="TestReportsOctober" r:id="rId21" sheetId="22"/>
+    <sheet name="TestReportsNovember" r:id="rId22" sheetId="23"/>
+    <sheet name="TestReportsDecember" r:id="rId23" sheetId="24"/>
+    <sheet name="TestReportsJanuary" r:id="rId24" sheetId="25"/>
+    <sheet name="TestReportsFebruary" r:id="rId25" sheetId="26"/>
+    <sheet name="NIDirector_AsEmpMonth12" r:id="rId26" sheetId="4"/>
+    <sheet name="TestReportsMarch" r:id="rId27" sheetId="27"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="103">
   <si>
     <t>TC</t>
   </si>
@@ -355,6 +355,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -402,48 +403,48 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -460,10 +461,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -621,7 +622,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -630,13 +631,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -646,7 +647,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -655,7 +656,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -664,7 +665,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -674,12 +675,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -710,7 +711,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -729,7 +730,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -741,7 +742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -750,13 +751,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -770,7 +771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -784,7 +785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="3" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -798,7 +799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="4" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
@@ -812,7 +813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="5" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>45</v>
       </c>
@@ -826,7 +827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="6" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>52</v>
       </c>
@@ -840,7 +841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="7" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>80</v>
       </c>
@@ -854,7 +855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="8" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>92</v>
       </c>
@@ -868,7 +869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="9" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>93</v>
       </c>
@@ -882,7 +883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="10" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>94</v>
       </c>
@@ -896,7 +897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="11" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>95</v>
       </c>
@@ -910,7 +911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="12" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>96</v>
       </c>
@@ -924,7 +925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="13" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>97</v>
       </c>
@@ -938,7 +939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="14" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>98</v>
       </c>
@@ -952,7 +953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="15" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>81</v>
       </c>
@@ -966,7 +967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
@@ -980,7 +981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -994,7 +995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1008,7 +1009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="43.2" r="19" s="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>82</v>
       </c>
@@ -1022,7 +1023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="43.2" r="20" s="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>83</v>
       </c>
@@ -1036,7 +1037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="43.2" r="21" s="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>84</v>
       </c>
@@ -1050,7 +1051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="43.2" r="22" s="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>85</v>
       </c>
@@ -1064,7 +1065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="43.2" r="23" s="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>86</v>
       </c>
@@ -1078,7 +1079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>87</v>
       </c>
@@ -1092,7 +1093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>88</v>
       </c>
@@ -1106,7 +1107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>89</v>
       </c>
@@ -1120,7 +1121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="27" s="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>20</v>
       </c>
@@ -1131,7 +1132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>90</v>
       </c>
@@ -1146,13 +1147,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1161,19 +1162,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="50" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="50.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -1214,7 +1215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -1251,14 +1252,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1267,19 +1268,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="63.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="38.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="63.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -1357,14 +1358,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1373,19 +1374,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="41.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="61.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="41.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="61.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -1426,7 +1427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -1463,14 +1464,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1479,20 +1480,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="67.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="67.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -1533,7 +1534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -1570,14 +1571,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1586,19 +1587,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="71.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="71.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -1639,7 +1640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -1676,14 +1677,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1692,20 +1693,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="57.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="57.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -1749,7 +1750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -1789,15 +1790,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1806,21 +1807,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -1864,7 +1865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -1904,15 +1905,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1921,20 +1922,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="62.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -1978,7 +1979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -2018,15 +2019,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2035,21 +2036,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="59.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -2093,7 +2094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -2133,15 +2134,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2150,20 +2151,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="63.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="27.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="57.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="63.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="27.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -2207,7 +2208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -2247,15 +2248,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2264,14 +2265,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.6640625" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="14.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="13.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="15.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2327,13 +2328,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2342,21 +2343,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.88671875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -2400,7 +2401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -2440,15 +2441,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2457,20 +2458,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -2514,7 +2515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -2554,15 +2555,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2571,20 +2572,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="67.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="67.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="26.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -2628,7 +2629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -2668,15 +2669,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2685,20 +2686,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="49.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="74.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="56.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="49.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="41.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="74.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -2742,7 +2743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -2782,15 +2783,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2799,20 +2800,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="47.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="68.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="54.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="47.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="68.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -2856,7 +2857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -2896,15 +2897,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2913,20 +2914,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -2970,7 +2971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -3010,15 +3011,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3027,17 +3028,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="6" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="6.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3066,7 +3067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>100</v>
       </c>
@@ -3090,13 +3091,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3105,21 +3106,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -3163,7 +3164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -3203,14 +3204,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3219,19 +3220,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="63.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="63.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -3272,7 +3273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -3309,14 +3310,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3325,18 +3326,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="39.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="39.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="62.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -3377,7 +3378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -3414,14 +3415,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3430,19 +3431,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -3483,7 +3484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -3520,14 +3521,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3536,20 +3537,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="74.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="74.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -3590,7 +3591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -3627,14 +3628,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3643,19 +3644,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="77.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="77.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -3696,7 +3697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -3733,14 +3734,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3749,19 +3750,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="38.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -3802,7 +3803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -3839,14 +3840,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3855,18 +3856,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="36.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="36.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -3907,7 +3908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -3944,8 +3945,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director as employee201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director as employee201718.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="103">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director as employee201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director as employee201718.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="104">
   <si>
     <t>TC</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>DIREMP_Payroll</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director as employee201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director as employee201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="19" firstSheet="16" windowHeight="3180" windowWidth="8208" xWindow="0" yWindow="2376"/>
+    <workbookView activeTab="13" firstSheet="11" windowHeight="3180" windowWidth="8205" xWindow="0" yWindow="2370"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="1"/>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="103">
   <si>
     <t>TC</t>
   </si>
@@ -349,15 +354,12 @@
   </si>
   <si>
     <t>DIREMP_Payroll</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -502,7 +504,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -535,9 +537,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -570,6 +589,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -752,15 +788,15 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,7 +824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="3" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -802,7 +838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="4" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
@@ -816,7 +852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="5" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>45</v>
       </c>
@@ -830,7 +866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="6" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>52</v>
       </c>
@@ -844,7 +880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="7" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>80</v>
       </c>
@@ -858,7 +894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="8" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>92</v>
       </c>
@@ -872,7 +908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="9" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>93</v>
       </c>
@@ -886,7 +922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="10" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>94</v>
       </c>
@@ -900,7 +936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="11" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>95</v>
       </c>
@@ -914,7 +950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="12" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>96</v>
       </c>
@@ -928,7 +964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="13" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>97</v>
       </c>
@@ -942,7 +978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="14" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>98</v>
       </c>
@@ -956,7 +992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="15" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>81</v>
       </c>
@@ -984,7 +1020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="43.2" r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row ht="45" r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -998,7 +1034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="43.2" r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row ht="45" r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1012,7 +1048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="43.2" r="19" s="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="45" r="19" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>82</v>
       </c>
@@ -1026,7 +1062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="43.2" r="20" s="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="45" r="20" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>83</v>
       </c>
@@ -1040,7 +1076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="43.2" r="21" s="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="45" r="21" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>84</v>
       </c>
@@ -1054,7 +1090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="43.2" r="22" s="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="45" r="22" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>85</v>
       </c>
@@ -1068,7 +1104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="43.2" r="23" s="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="45" r="23" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>86</v>
       </c>
@@ -1082,7 +1118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="43.2" r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row ht="45" r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>87</v>
       </c>
@@ -1096,7 +1132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="43.2" r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row ht="45" r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>88</v>
       </c>
@@ -1110,7 +1146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="43.2" r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row ht="45" r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>89</v>
       </c>
@@ -1124,7 +1160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="27" s="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="27" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>20</v>
       </c>
@@ -1135,7 +1171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="43.2" r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row ht="45" r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>90</v>
       </c>
@@ -1163,21 +1199,21 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="39.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="50.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="64.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -1218,7 +1254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -1269,21 +1305,21 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="38.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="63.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="63.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -1324,7 +1360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -1375,21 +1411,21 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="51.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="41.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="61.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="41.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="61.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -1430,7 +1466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -1481,22 +1517,22 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="52.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="16.0" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="43.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="67.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="67.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -1537,7 +1573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -1584,25 +1620,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="55.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="55.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.28515625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="43.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="71.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="71.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="16.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -1643,7 +1680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -1694,19 +1731,19 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="53.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="33.0" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="57.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="57.85546875" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="27.6" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1753,7 +1790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -1808,23 +1845,23 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="51.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="65.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.88671875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -1868,7 +1905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -1923,22 +1960,22 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="52.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.7109375" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="44.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="62.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="62.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -1982,7 +2019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -2037,23 +2074,23 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="55.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="59.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="55.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="59.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -2097,7 +2134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -2152,22 +2189,22 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="57.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="44.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="63.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="27.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="57.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="63.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="27.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -2211,7 +2248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -2266,16 +2303,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="14.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="13.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="15.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="15.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2340,27 +2377,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="51.0" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="44.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="65.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.88671875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -2404,7 +2441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -2459,22 +2496,22 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="52.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="64.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -2518,7 +2555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -2573,22 +2610,22 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="45.28515625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="67.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="67.42578125" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.140625" collapsed="true"/>
     <col min="11" max="11" customWidth="true" width="26.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -2632,7 +2669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -2687,22 +2724,22 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="56.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="49.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="41.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="74.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="56.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="49.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="41.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="74.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.5703125" collapsed="true"/>
     <col min="10" max="10" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -2746,7 +2783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -2801,22 +2838,22 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="54.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="54.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="47.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="68.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="68.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
     <col min="10" max="10" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -2860,7 +2897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -2915,22 +2952,22 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="55.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="55.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="64.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -2974,7 +3011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -3029,15 +3066,15 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="5.28515625" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="6.0" collapsed="true"/>
   </cols>
   <sheetData>
@@ -3107,23 +3144,23 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="36.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="44.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="65.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -3167,7 +3204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -3221,21 +3258,21 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.5703125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.5703125" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="63.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="63.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -3276,7 +3313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -3327,20 +3364,20 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="52.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" width="39.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="62.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="62.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -3381,7 +3418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -3432,21 +3469,21 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="52.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.140625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="44.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="65.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -3487,7 +3524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -3538,22 +3575,22 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="74.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="51.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="74.42578125" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -3594,7 +3631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -3645,21 +3682,20 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.6640625" collapsed="true"/>
+    <col min="1" max="2" customWidth="true" width="37.7109375" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="77.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="77.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -3700,7 +3736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -3751,21 +3787,21 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="38.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="65.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -3806,7 +3842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -3857,20 +3893,20 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="36.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="64.33203125" collapsed="true"/>
+    <col min="1" max="2" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.28515625" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -3911,7 +3947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
